--- a/replication_data/in/icbe_litreview_trees_sentences.xlsx
+++ b/replication_data/in/icbe_litreview_trees_sentences.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5903" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5904" uniqueCount="588">
   <si>
     <t>Concept</t>
   </si>
@@ -1827,20 +1827,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -1850,6 +1853,7 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -1868,6 +1872,11 @@
       <name val="Roboto"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -1891,6 +1900,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
@@ -1904,6 +1917,7 @@
       <u/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2016,13 +2030,13 @@
     <xf borderId="0" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2034,10 +2048,10 @@
     <xf borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2049,7 +2063,7 @@
     <xf borderId="2" fillId="2" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2082,20 +2096,20 @@
     <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2104,18 +2118,18 @@
     <xf borderId="0" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3058,7 +3072,7 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="7.25"/>
     <col customWidth="1" min="3" max="3" width="18.38"/>
-    <col customWidth="1" min="4" max="4" width="112.0"/>
+    <col customWidth="1" min="4" max="4" width="36.63"/>
     <col customWidth="1" min="5" max="5" width="9.63"/>
     <col customWidth="1" min="6" max="6" width="8.0"/>
     <col customWidth="1" min="7" max="7" width="6.25"/>
@@ -3750,7 +3764,9 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
